--- a/Copy of Tatil Günleri ve Hedef.xlsx
+++ b/Copy of Tatil Günleri ve Hedef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skodacomtr-my.sharepoint.com/personal/dogao_skoda_com_tr/Documents/Masaüstü/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{1E7BBBEA-CA4D-4CA2-A663-B71C35413D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{985D885C-0510-4735-A973-06CEFE128B2F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66157FD-4BBF-40BE-BF8C-FFA44B4F99C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hedef" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="C9" s="4">
         <v>97678454.368932039</v>
@@ -612,7 +612,7 @@
         <v>18200</v>
       </c>
       <c r="C10" s="4">
-        <v>94880205.825242728</v>
+        <v>115881570.917476</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,10 +620,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>17500</v>
+        <v>17822</v>
       </c>
       <c r="C11" s="4">
-        <v>91615582.524271846</v>
+        <v>115412570.917476</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,10 +631,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="C12" s="4">
-        <v>91615582.524271846</v>
+        <v>120412570.917476</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,10 +642,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="C13" s="4">
-        <v>91615582.524271846</v>
+        <v>120412570.917476</v>
       </c>
     </row>
   </sheetData>
